--- a/Output/TopPercentage_Report_Rebalancing_EG.xlsx
+++ b/Output/TopPercentage_Report_Rebalancing_EG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>GLOBAL TELECOM HOLDING GDR</t>
+  </si>
+  <si>
+    <t>ORASCOM CONSTRUCTION IND</t>
   </si>
   <si>
     <t>Global Telecom Holding</t>
@@ -700,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2367,22 +2370,22 @@
         <v>41540</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>90</v>
       </c>
       <c r="F73">
-        <v>1545089844.16996</v>
+        <v>291739612.7229936</v>
       </c>
       <c r="G73">
-        <v>3198943776.7494</v>
+        <v>7293490318.07484</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2390,22 +2393,22 @@
         <v>41540</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F74">
-        <v>543110244.45552</v>
+        <v>1545089844.16996</v>
       </c>
       <c r="G74">
-        <v>3054613298.4</v>
+        <v>3198943776.7494</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2413,22 +2416,22 @@
         <v>41540</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F75">
-        <v>2742089658.991233</v>
+        <v>543110244.45552</v>
       </c>
       <c r="G75">
-        <v>3017928306.175692</v>
+        <v>3054613298.4</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2436,22 +2439,22 @@
         <v>41540</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F76">
-        <v>721293157.0572523</v>
+        <v>2742089658.991233</v>
       </c>
       <c r="G76">
-        <v>1450418574.416353</v>
+        <v>3017928306.175692</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2459,22 +2462,22 @@
         <v>41540</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F77">
-        <v>385851066.363</v>
+        <v>721293157.0572523</v>
       </c>
       <c r="G77">
-        <v>1112283270</v>
+        <v>1450418574.416353</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2482,22 +2485,22 @@
         <v>41540</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F78">
-        <v>485349228.2908098</v>
+        <v>385851066.363</v>
       </c>
       <c r="G78">
-        <v>990508629.1649178</v>
+        <v>1112283270</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2505,22 +2508,22 @@
         <v>41540</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F79">
-        <v>306859702.9344509</v>
+        <v>485349228.2908098</v>
       </c>
       <c r="G79">
-        <v>866345858.0871</v>
+        <v>990508629.1649178</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2528,22 +2531,22 @@
         <v>41540</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F80">
-        <v>476719275.9999999</v>
+        <v>306859702.9344509</v>
       </c>
       <c r="G80">
-        <v>595899095</v>
+        <v>866345858.0871</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2551,45 +2554,45 @@
         <v>41540</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F81">
-        <v>412789780.4617645</v>
+        <v>476719275.9999999</v>
       </c>
       <c r="G81">
-        <v>553337507.3214</v>
+        <v>595899095</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>41631</v>
+        <v>41540</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F82">
-        <v>3390473311.343011</v>
+        <v>412789780.4617645</v>
       </c>
       <c r="G82">
-        <v>3731535671.740051</v>
+        <v>553337507.3214</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2597,22 +2600,22 @@
         <v>41631</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F83">
-        <v>1689432195.815398</v>
+        <v>3390473311.343011</v>
       </c>
       <c r="G83">
-        <v>3497789225.29068</v>
+        <v>3731535671.740051</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2620,22 +2623,22 @@
         <v>41631</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F84">
-        <v>596126756.8636564</v>
+        <v>1689432195.815398</v>
       </c>
       <c r="G84">
-        <v>3352793908.119552</v>
+        <v>3497789225.29068</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2643,22 +2646,22 @@
         <v>41631</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F85">
-        <v>780279054.5268645</v>
+        <v>596126756.8636564</v>
       </c>
       <c r="G85">
-        <v>1678741511.460552</v>
+        <v>3352793908.119552</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2666,22 +2669,22 @@
         <v>41631</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F86">
-        <v>612593364.2480198</v>
+        <v>780279054.5268645</v>
       </c>
       <c r="G86">
-        <v>1282112524.587735</v>
+        <v>1678741511.460552</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2689,22 +2692,22 @@
         <v>41631</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F87">
-        <v>391351179.5141256</v>
+        <v>612593364.2480198</v>
       </c>
       <c r="G87">
-        <v>1104887576.268</v>
+        <v>1282112524.587735</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2712,22 +2715,22 @@
         <v>41631</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F88">
-        <v>590771005.605</v>
+        <v>391351179.5141256</v>
       </c>
       <c r="G88">
-        <v>755365050</v>
+        <v>1104887576.268</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2735,45 +2738,45 @@
         <v>41631</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F89">
-        <v>416418347.670972</v>
+        <v>590771005.605</v>
       </c>
       <c r="G89">
-        <v>692184753.4424402</v>
+        <v>755365050</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>41722</v>
+        <v>41631</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F90">
-        <v>4279913324.328417</v>
+        <v>416418347.670972</v>
       </c>
       <c r="G90">
-        <v>4710448298.842634</v>
+        <v>692184753.4424402</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2781,22 +2784,22 @@
         <v>41722</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F91">
-        <v>664972230.7960638</v>
+        <v>4279913324.328417</v>
       </c>
       <c r="G91">
-        <v>3740001298.0656</v>
+        <v>4710448298.842634</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2804,22 +2807,22 @@
         <v>41722</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F92">
-        <v>1787233577.273529</v>
+        <v>664972230.7960638</v>
       </c>
       <c r="G92">
-        <v>3700276557.50213</v>
+        <v>3740001298.0656</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2827,22 +2830,22 @@
         <v>41722</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F93">
-        <v>1107872323.041914</v>
+        <v>1787233577.273529</v>
       </c>
       <c r="G93">
-        <v>2383546306.028214</v>
+        <v>3700276557.50213</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2850,22 +2853,22 @@
         <v>41722</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F94">
-        <v>735708525.5903542</v>
+        <v>1107872323.041914</v>
       </c>
       <c r="G94">
-        <v>1539783435.726986</v>
+        <v>2383546306.028214</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2873,22 +2876,22 @@
         <v>41722</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F95">
-        <v>312159814.1311126</v>
+        <v>735708525.5903542</v>
       </c>
       <c r="G95">
-        <v>1474538564.625</v>
+        <v>1539783435.726986</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2896,22 +2899,22 @@
         <v>41722</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
         <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F96">
-        <v>494838389.2170542</v>
+        <v>312159814.1311126</v>
       </c>
       <c r="G96">
-        <v>1397059258.09445</v>
+        <v>1474538564.625</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2919,22 +2922,22 @@
         <v>41722</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
         <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F97">
-        <v>630125749.868026</v>
+        <v>494838389.2170542</v>
       </c>
       <c r="G97">
-        <v>1047416472.51999</v>
+        <v>1397059258.09445</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2942,22 +2945,22 @@
         <v>41722</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
         <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F98">
-        <v>502734252.7588488</v>
+        <v>630125749.868026</v>
       </c>
       <c r="G98">
-        <v>1039996385.516857</v>
+        <v>1047416472.51999</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2965,22 +2968,22 @@
         <v>41722</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
         <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F99">
-        <v>761438185.002</v>
+        <v>502734252.7588488</v>
       </c>
       <c r="G99">
-        <v>973581619.9999999</v>
+        <v>1039996385.516857</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2988,22 +2991,22 @@
         <v>41722</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F100">
-        <v>636698964.0480001</v>
+        <v>761438185.002</v>
       </c>
       <c r="G100">
-        <v>947468696.5</v>
+        <v>973581619.9999999</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3011,45 +3014,45 @@
         <v>41722</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F101">
-        <v>359495024.5140966</v>
+        <v>636698964.0480001</v>
       </c>
       <c r="G101">
-        <v>666348516.24485</v>
+        <v>947468696.5</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>41813</v>
+        <v>41722</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E102" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F102">
-        <v>4041131907.083601</v>
+        <v>359495024.5140966</v>
       </c>
       <c r="G102">
-        <v>4447646827.078585</v>
+        <v>666348516.24485</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3057,22 +3060,22 @@
         <v>41813</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F103">
-        <v>1839026408.527272</v>
+        <v>4041131907.083601</v>
       </c>
       <c r="G103">
-        <v>3807508092.18897</v>
+        <v>4447646827.078585</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3080,22 +3083,22 @@
         <v>41813</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
         <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F104">
-        <v>625495206.131328</v>
+        <v>1839026408.527272</v>
       </c>
       <c r="G104">
-        <v>3127476030.65664</v>
+        <v>3807508092.18897</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3103,22 +3106,22 @@
         <v>41813</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F105">
-        <v>1110290421.839468</v>
+        <v>625495206.131328</v>
       </c>
       <c r="G105">
-        <v>2548291076.06029</v>
+        <v>3127476030.65664</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3126,22 +3129,22 @@
         <v>41813</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E106" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F106">
-        <v>452375266.5098476</v>
+        <v>1110290421.839468</v>
       </c>
       <c r="G106">
-        <v>1277174665.471055</v>
+        <v>2548291076.06029</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3149,22 +3152,22 @@
         <v>41813</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F107">
-        <v>329579082.49266</v>
+        <v>452375266.5098476</v>
       </c>
       <c r="G107">
-        <v>1187244533.475</v>
+        <v>1277174665.471055</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3172,22 +3175,22 @@
         <v>41813</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F108">
-        <v>524166017.0511888</v>
+        <v>329579082.49266</v>
       </c>
       <c r="G108">
-        <v>1097040638.449537</v>
+        <v>1187244533.475</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3195,22 +3198,22 @@
         <v>41813</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
         <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F109">
-        <v>794423130.2876</v>
+        <v>524166017.0511888</v>
       </c>
       <c r="G109">
-        <v>1070939782</v>
+        <v>1097040638.449537</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3218,22 +3221,22 @@
         <v>41813</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F110">
-        <v>705274943.3650978</v>
+        <v>794423130.2876</v>
       </c>
       <c r="G110">
-        <v>1059767007.31044</v>
+        <v>1070939782</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3241,22 +3244,22 @@
         <v>41813</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
         <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F111">
-        <v>371197686.9347603</v>
+        <v>705274943.3650978</v>
       </c>
       <c r="G111">
-        <v>1031104685.92989</v>
+        <v>1059767007.31044</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3264,22 +3267,22 @@
         <v>41813</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F112">
-        <v>439745961.5290065</v>
+        <v>371197686.9347603</v>
       </c>
       <c r="G112">
-        <v>909693755.7488757</v>
+        <v>1031104685.92989</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3287,22 +3290,22 @@
         <v>41813</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F113">
-        <v>411009603.7125</v>
+        <v>439745961.5290065</v>
       </c>
       <c r="G113">
-        <v>891560962.5</v>
+        <v>909693755.7488757</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3310,22 +3313,22 @@
         <v>41813</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
         <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F114">
-        <v>437445226.757709</v>
+        <v>411009603.7125</v>
       </c>
       <c r="G114">
-        <v>810834525.9642428</v>
+        <v>891560962.5</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3333,22 +3336,22 @@
         <v>41813</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F115">
-        <v>365649454.7130229</v>
+        <v>437445226.757709</v>
       </c>
       <c r="G115">
-        <v>766721439.9518199</v>
+        <v>810834525.9642428</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3356,22 +3359,22 @@
         <v>41813</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
         <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E116" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F116">
-        <v>362028964.6209599</v>
+        <v>365649454.7130229</v>
       </c>
       <c r="G116">
-        <v>706535840.4</v>
+        <v>766721439.9518199</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3379,45 +3382,45 @@
         <v>41813</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F117">
-        <v>305253691.236</v>
+        <v>362028964.6209599</v>
       </c>
       <c r="G117">
-        <v>591576921</v>
+        <v>706535840.4</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>41904</v>
+        <v>41813</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
         <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E118" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F118">
-        <v>5428982880.355804</v>
+        <v>305253691.236</v>
       </c>
       <c r="G118">
-        <v>5967226731.540783</v>
+        <v>591576921</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3425,22 +3428,22 @@
         <v>41904</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F119">
-        <v>1977206914.741905</v>
+        <v>5428982880.355804</v>
       </c>
       <c r="G119">
-        <v>3954413829.483809</v>
+        <v>5967226731.540783</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3448,22 +3451,22 @@
         <v>41904</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F120">
-        <v>687598714.238976</v>
+        <v>1977206914.741905</v>
       </c>
       <c r="G120">
-        <v>3437993571.19488</v>
+        <v>3954413829.483809</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3471,22 +3474,22 @@
         <v>41904</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E121" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F121">
-        <v>1495527426.233452</v>
+        <v>687598714.238976</v>
       </c>
       <c r="G121">
-        <v>3007294241.370304</v>
+        <v>3437993571.19488</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3494,22 +3497,22 @@
         <v>41904</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F122">
-        <v>408272796.6370199</v>
+        <v>1495527426.233452</v>
       </c>
       <c r="G122">
-        <v>1470723330.825</v>
+        <v>3007294241.370304</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3517,22 +3520,22 @@
         <v>41904</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
         <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F123">
-        <v>1088552964.265319</v>
+        <v>408272796.6370199</v>
       </c>
       <c r="G123">
-        <v>1465275224.478825</v>
+        <v>1470723330.825</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3540,22 +3543,22 @@
         <v>41904</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
         <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E124" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F124">
-        <v>626574550.2101458</v>
+        <v>1088552964.265319</v>
       </c>
       <c r="G124">
-        <v>1311374110.946307</v>
+        <v>1465275224.478825</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3563,22 +3566,22 @@
         <v>41904</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
         <v>38</v>
       </c>
       <c r="D125" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F125">
-        <v>459662292.6008291</v>
+        <v>626574550.2101458</v>
       </c>
       <c r="G125">
-        <v>1297747861.66242</v>
+        <v>1311374110.946307</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3586,22 +3589,22 @@
         <v>41904</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
         <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F126">
-        <v>427732795.3719445</v>
+        <v>459662292.6008291</v>
       </c>
       <c r="G126">
-        <v>1185512182.294746</v>
+        <v>1297747861.66242</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3609,22 +3612,22 @@
         <v>41904</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
         <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F127">
-        <v>514510859.8979999</v>
+        <v>427732795.3719445</v>
       </c>
       <c r="G127">
-        <v>1116075618</v>
+        <v>1185512182.294746</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3632,22 +3635,22 @@
         <v>41904</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
         <v>38</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F128">
-        <v>474528640.5555046</v>
+        <v>514510859.8979999</v>
       </c>
       <c r="G128">
-        <v>995027554.1109346</v>
+        <v>1116075618</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3655,22 +3658,22 @@
         <v>41904</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
         <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E129" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F129">
-        <v>783610532.8158799</v>
+        <v>474528640.5555046</v>
       </c>
       <c r="G129">
-        <v>954109987.6</v>
+        <v>995027554.1109346</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3678,22 +3681,22 @@
         <v>41904</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F130">
-        <v>443312586.0631996</v>
+        <v>783610532.8158799</v>
       </c>
       <c r="G130">
-        <v>917071961.2395525</v>
+        <v>954109987.6</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3701,22 +3704,22 @@
         <v>41904</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
         <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F131">
-        <v>818414623.6490244</v>
+        <v>443312586.0631996</v>
       </c>
       <c r="G131">
-        <v>818414623.6490244</v>
+        <v>917071961.2395525</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3724,45 +3727,45 @@
         <v>41904</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F132">
-        <v>377364467.0016</v>
+        <v>818414623.6490244</v>
       </c>
       <c r="G132">
-        <v>772022231.9999999</v>
+        <v>818414623.6490244</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>41995</v>
+        <v>41904</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E133" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F133">
-        <v>5708648990.318579</v>
+        <v>377364467.0016</v>
       </c>
       <c r="G133">
-        <v>6274619685.995361</v>
+        <v>772022231.9999999</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3770,22 +3773,22 @@
         <v>41995</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F134">
-        <v>687600189.1491841</v>
+        <v>5708648990.318579</v>
       </c>
       <c r="G134">
-        <v>3438000945.74592</v>
+        <v>6274619685.995361</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3793,22 +3796,22 @@
         <v>41995</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E135" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F135">
-        <v>1559025493.97025</v>
+        <v>687600189.1491841</v>
       </c>
       <c r="G135">
-        <v>3118050987.9405</v>
+        <v>3438000945.74592</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3816,22 +3819,22 @@
         <v>41995</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E136" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F136">
-        <v>1459649380.944735</v>
+        <v>1559025493.97025</v>
       </c>
       <c r="G136">
-        <v>2935148564.135804</v>
+        <v>3118050987.9405</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3839,22 +3842,22 @@
         <v>41995</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E137" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F137">
-        <v>1144049807.09975</v>
+        <v>1459649380.944735</v>
       </c>
       <c r="G137">
-        <v>1539978203.12256</v>
+        <v>2935148564.135804</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3862,22 +3865,22 @@
         <v>41995</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
         <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E138" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F138">
-        <v>524238736.1162617</v>
+        <v>1144049807.09975</v>
       </c>
       <c r="G138">
-        <v>1452989845.11159</v>
+        <v>1539978203.12256</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3885,22 +3888,22 @@
         <v>41995</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
         <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E139" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F139">
-        <v>357723562.1778001</v>
+        <v>524238736.1162617</v>
       </c>
       <c r="G139">
-        <v>1288629546.75</v>
+        <v>1452989845.11159</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3908,22 +3911,22 @@
         <v>41995</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
         <v>38</v>
       </c>
       <c r="D140" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E140" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F140">
-        <v>454819051.9944872</v>
+        <v>357723562.1778001</v>
       </c>
       <c r="G140">
-        <v>1284074116.3029</v>
+        <v>1288629546.75</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3931,22 +3934,22 @@
         <v>41995</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F141">
-        <v>540390254.1537844</v>
+        <v>454819051.9944872</v>
       </c>
       <c r="G141">
-        <v>1130996764.658402</v>
+        <v>1284074116.3029</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3954,22 +3957,22 @@
         <v>41995</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
       </c>
       <c r="D142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E142" t="s">
         <v>92</v>
       </c>
       <c r="F142">
-        <v>464592586.7506036</v>
+        <v>540390254.1537844</v>
       </c>
       <c r="G142">
-        <v>961093476.9354647</v>
+        <v>1130996764.658402</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3977,22 +3980,22 @@
         <v>41995</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
         <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F143">
-        <v>453393518.1808909</v>
+        <v>464592586.7506036</v>
       </c>
       <c r="G143">
-        <v>950709830.5323776</v>
+        <v>961093476.9354647</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4000,22 +4003,22 @@
         <v>41995</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E144" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F144">
-        <v>405548903.586</v>
+        <v>453393518.1808909</v>
       </c>
       <c r="G144">
-        <v>879715626</v>
+        <v>950709830.5323776</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4023,22 +4026,22 @@
         <v>41995</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F145">
-        <v>665085745.655182</v>
+        <v>405548903.586</v>
       </c>
       <c r="G145">
-        <v>809796354.14</v>
+        <v>879715626</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4046,22 +4049,22 @@
         <v>41995</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F146">
-        <v>807101867.0071388</v>
+        <v>665085745.655182</v>
       </c>
       <c r="G146">
-        <v>807101867.0071388</v>
+        <v>809796354.14</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4069,22 +4072,22 @@
         <v>41995</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E147" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F147">
-        <v>363918802.13208</v>
+        <v>807101867.0071388</v>
       </c>
       <c r="G147">
-        <v>705268996.38</v>
+        <v>807101867.0071388</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4092,45 +4095,45 @@
         <v>41995</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C148" t="s">
         <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E148" t="s">
         <v>96</v>
       </c>
       <c r="F148">
-        <v>307634736.2399999</v>
+        <v>363918802.13208</v>
       </c>
       <c r="G148">
-        <v>629367299.9999999</v>
+        <v>705268996.38</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>42086</v>
+        <v>41995</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E149" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F149">
-        <v>5764130004.22603</v>
+        <v>307634736.2399999</v>
       </c>
       <c r="G149">
-        <v>6534553910.243771</v>
+        <v>629367299.9999999</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4138,22 +4141,22 @@
         <v>42086</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E150" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F150">
-        <v>1416247341.686348</v>
+        <v>5764130004.22603</v>
       </c>
       <c r="G150">
-        <v>2847873198.645382</v>
+        <v>6534553910.243771</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4161,22 +4164,22 @@
         <v>42086</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E151" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F151">
-        <v>523531116.1566719</v>
+        <v>1416247341.686348</v>
       </c>
       <c r="G151">
-        <v>2617655580.78336</v>
+        <v>2847873198.645382</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4184,22 +4187,22 @@
         <v>42086</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E152" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F152">
-        <v>1275326366.80393</v>
+        <v>523531116.1566719</v>
       </c>
       <c r="G152">
-        <v>2550652733.60786</v>
+        <v>2617655580.78336</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4207,22 +4210,22 @@
         <v>42086</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E153" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F153">
-        <v>496543332.8830358</v>
+        <v>1275326366.80393</v>
       </c>
       <c r="G153">
-        <v>1376228749.67582</v>
+        <v>2550652733.60786</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4230,22 +4233,22 @@
         <v>42086</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E154" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F154">
-        <v>583623379.0973984</v>
+        <v>496543332.8830358</v>
       </c>
       <c r="G154">
-        <v>1221480492.041437</v>
+        <v>1376228749.67582</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4253,22 +4256,22 @@
         <v>42086</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C155" t="s">
         <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F155">
-        <v>836468114.4185704</v>
+        <v>583623379.0973984</v>
       </c>
       <c r="G155">
-        <v>1179286781.923827</v>
+        <v>1221480492.041437</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4276,22 +4279,22 @@
         <v>42086</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E156" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F156">
-        <v>395944886.3859427</v>
+        <v>836468114.4185704</v>
       </c>
       <c r="G156">
-        <v>1117856822.0947</v>
+        <v>1179286781.923827</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4299,22 +4302,22 @@
         <v>42086</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
         <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F157">
-        <v>429730149.7513227</v>
+        <v>395944886.3859427</v>
       </c>
       <c r="G157">
-        <v>901090689.3506451</v>
+        <v>1117856822.0947</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4322,22 +4325,22 @@
         <v>42086</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
         <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E158" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F158">
-        <v>767155208.5254329</v>
+        <v>429730149.7513227</v>
       </c>
       <c r="G158">
-        <v>891004887.9505609</v>
+        <v>901090689.3506451</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4345,22 +4348,22 @@
         <v>42086</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C159" t="s">
         <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E159" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F159">
-        <v>402132794.9752101</v>
+        <v>767155208.5254329</v>
       </c>
       <c r="G159">
-        <v>831884143.5151222</v>
+        <v>891004887.9505609</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4368,22 +4371,22 @@
         <v>42086</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s">
         <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E160" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F160">
-        <v>351800776.5816</v>
+        <v>402132794.9752101</v>
       </c>
       <c r="G160">
-        <v>758845506</v>
+        <v>831884143.5151222</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4391,22 +4394,22 @@
         <v>42086</v>
       </c>
       <c r="B161" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
         <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F161">
-        <v>408397086.4743</v>
+        <v>351800776.5816</v>
       </c>
       <c r="G161">
-        <v>701833797</v>
+        <v>758845506</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4414,22 +4417,22 @@
         <v>42086</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
         <v>38</v>
       </c>
       <c r="D162" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E162" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F162">
-        <v>680343836.0897</v>
+        <v>408397086.4743</v>
       </c>
       <c r="G162">
-        <v>680343836.0897</v>
+        <v>701833797</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4437,45 +4440,45 @@
         <v>42086</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E163" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F163">
-        <v>506608599.1499841</v>
+        <v>680343836.0897</v>
       </c>
       <c r="G163">
-        <v>663447615.4400001</v>
+        <v>680343836.0897</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>42177</v>
+        <v>42086</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E164" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F164">
-        <v>5891149374.637491</v>
+        <v>506608599.1499841</v>
       </c>
       <c r="G164">
-        <v>6678550475.725532</v>
+        <v>663447615.4400001</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4483,22 +4486,22 @@
         <v>42177</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
         <v>38</v>
       </c>
       <c r="D165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E165" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F165">
-        <v>1304610332.890505</v>
+        <v>5891149374.637491</v>
       </c>
       <c r="G165">
-        <v>2623386955.339846</v>
+        <v>6678550475.725532</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4506,22 +4509,22 @@
         <v>42177</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>38</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E166" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F166">
-        <v>383473893.0617473</v>
+        <v>1304610332.890505</v>
       </c>
       <c r="G166">
-        <v>1917369465.308736</v>
+        <v>2623386955.339846</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4529,22 +4532,22 @@
         <v>42177</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>38</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F167">
-        <v>952194220.741585</v>
+        <v>383473893.0617473</v>
       </c>
       <c r="G167">
-        <v>1904388441.48317</v>
+        <v>1917369465.308736</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4552,22 +4555,22 @@
         <v>42177</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>38</v>
       </c>
       <c r="D168" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E168" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F168">
-        <v>501718147.1821965</v>
+        <v>952194220.741585</v>
       </c>
       <c r="G168">
-        <v>1390571361.369724</v>
+        <v>1904388441.48317</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4575,22 +4578,22 @@
         <v>42177</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
         <v>38</v>
       </c>
       <c r="D169" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F169">
-        <v>578315505.7292744</v>
+        <v>501718147.1821965</v>
       </c>
       <c r="G169">
-        <v>1210371506.340047</v>
+        <v>1390571361.369724</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4598,22 +4601,22 @@
         <v>42177</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C170" t="s">
         <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F170">
-        <v>819938210.3357197</v>
+        <v>578315505.7292744</v>
       </c>
       <c r="G170">
-        <v>1155982250.579049</v>
+        <v>1210371506.340047</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4621,22 +4624,22 @@
         <v>42177</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
         <v>38</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E171" t="s">
         <v>94</v>
       </c>
       <c r="F171">
-        <v>490648096.3481303</v>
+        <v>819938210.3357197</v>
       </c>
       <c r="G171">
-        <v>1028828048.538751</v>
+        <v>1155982250.579049</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4644,22 +4647,22 @@
         <v>42177</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C172" t="s">
         <v>38</v>
       </c>
       <c r="D172" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F172">
-        <v>871184203.457074</v>
+        <v>490648096.3481303</v>
       </c>
       <c r="G172">
-        <v>871184203.457074</v>
+        <v>1028828048.538751</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4667,22 +4670,22 @@
         <v>42177</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
         <v>38</v>
       </c>
       <c r="D173" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F173">
-        <v>707318677.6704761</v>
+        <v>871184203.457074</v>
       </c>
       <c r="G173">
-        <v>821508336.4349316</v>
+        <v>871184203.457074</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4690,22 +4693,22 @@
         <v>42177</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>38</v>
       </c>
       <c r="D174" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E174" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F174">
-        <v>335663283.8385382</v>
+        <v>707318677.6704761</v>
       </c>
       <c r="G174">
-        <v>694379983.1165456</v>
+        <v>821508336.4349316</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4713,45 +4716,45 @@
         <v>42177</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
         <v>38</v>
       </c>
       <c r="D175" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E175" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F175">
-        <v>374076576.46755</v>
+        <v>335663283.8385382</v>
       </c>
       <c r="G175">
-        <v>642853714.5000001</v>
+        <v>694379983.1165456</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>42268</v>
+        <v>42177</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C176" t="s">
         <v>38</v>
       </c>
       <c r="D176" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E176" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F176">
-        <v>5065430410.810365</v>
+        <v>374076576.46755</v>
       </c>
       <c r="G176">
-        <v>5742467306.212861</v>
+        <v>642853714.5000001</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4759,22 +4762,22 @@
         <v>42268</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
         <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F177">
-        <v>976402793.8240423</v>
+        <v>5065430410.810365</v>
       </c>
       <c r="G177">
-        <v>1963407990.798396</v>
+        <v>5742467306.212861</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4782,22 +4785,22 @@
         <v>42268</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>38</v>
       </c>
       <c r="D178" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E178" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F178">
-        <v>710142155.6039002</v>
+        <v>976402793.8240423</v>
       </c>
       <c r="G178">
-        <v>1420284311.2078</v>
+        <v>1963407990.798396</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4805,22 +4808,22 @@
         <v>42268</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
         <v>38</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F179">
-        <v>506700297.2114</v>
+        <v>710142155.6039002</v>
       </c>
       <c r="G179">
-        <v>1289970206.75</v>
+        <v>1420284311.2078</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4828,22 +4831,22 @@
         <v>42268</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
         <v>38</v>
       </c>
       <c r="D180" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E180" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F180">
-        <v>411795211.8148528</v>
+        <v>506700297.2114</v>
       </c>
       <c r="G180">
-        <v>1141339278.866</v>
+        <v>1289970206.75</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4851,22 +4854,22 @@
         <v>42268</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
         <v>38</v>
       </c>
       <c r="D181" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E181" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F181">
-        <v>482887516.3037831</v>
+        <v>411795211.8148528</v>
       </c>
       <c r="G181">
-        <v>985887130.0608066</v>
+        <v>1141339278.866</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4874,22 +4877,22 @@
         <v>42268</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s">
         <v>38</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E182" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F182">
-        <v>523908857.5251092</v>
+        <v>482887516.3037831</v>
       </c>
       <c r="G182">
-        <v>738628024.1436757</v>
+        <v>985887130.0608066</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4897,45 +4900,45 @@
         <v>42268</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
         <v>38</v>
       </c>
       <c r="D183" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E183" t="s">
         <v>94</v>
       </c>
       <c r="F183">
-        <v>331483991.8526311</v>
+        <v>523908857.5251092</v>
       </c>
       <c r="G183">
-        <v>695080712.6287085</v>
+        <v>738628024.1436757</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>42359</v>
+        <v>42268</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C184" t="s">
         <v>38</v>
       </c>
       <c r="D184" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E184" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F184">
-        <v>4496962510.244873</v>
+        <v>331483991.8526311</v>
       </c>
       <c r="G184">
-        <v>5098018943.708053</v>
+        <v>695080712.6287085</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4943,22 +4946,22 @@
         <v>42359</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E185" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F185">
-        <v>764083021.1157676</v>
+        <v>4496962510.244873</v>
       </c>
       <c r="G185">
-        <v>1536462942.118978</v>
+        <v>5098018943.708053</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4966,22 +4969,22 @@
         <v>42359</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>38</v>
       </c>
       <c r="D186" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E186" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F186">
-        <v>448983589.65444</v>
+        <v>764083021.1157676</v>
       </c>
       <c r="G186">
-        <v>1143033578.55</v>
+        <v>1536462942.118978</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4989,22 +4992,22 @@
         <v>42359</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
         <v>38</v>
       </c>
       <c r="D187" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E187" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F187">
-        <v>539305074.8248646</v>
+        <v>448983589.65444</v>
       </c>
       <c r="G187">
-        <v>1078610149.649729</v>
+        <v>1143033578.55</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5012,22 +5015,22 @@
         <v>42359</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
         <v>38</v>
       </c>
       <c r="D188" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E188" t="s">
         <v>91</v>
       </c>
       <c r="F188">
-        <v>441653501.6783309</v>
+        <v>539305074.8248646</v>
       </c>
       <c r="G188">
-        <v>901701718.4122722</v>
+        <v>1078610149.649729</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5035,22 +5038,22 @@
         <v>42359</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s">
         <v>38</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E189" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F189">
-        <v>331940144.0421451</v>
+        <v>441653501.6783309</v>
       </c>
       <c r="G189">
-        <v>696037207.0500001</v>
+        <v>901701718.4122722</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5058,45 +5061,45 @@
         <v>42359</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C190" t="s">
         <v>38</v>
       </c>
       <c r="D190" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E190" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F190">
-        <v>459610048.9932219</v>
+        <v>331940144.0421451</v>
       </c>
       <c r="G190">
-        <v>647976947.6853546</v>
+        <v>696037207.0500001</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>42450</v>
+        <v>42359</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
         <v>38</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E191" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F191">
-        <v>4309579926.684294</v>
+        <v>459610048.9932219</v>
       </c>
       <c r="G191">
-        <v>4885591119.696512</v>
+        <v>647976947.6853546</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5104,22 +5107,22 @@
         <v>42450</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
       </c>
       <c r="D192" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F192">
-        <v>287780060.9576968</v>
+        <v>4309579926.684294</v>
       </c>
       <c r="G192">
-        <v>1438900304.788484</v>
+        <v>4885591119.696512</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5127,22 +5130,22 @@
         <v>42450</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
       </c>
       <c r="D193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E193" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F193">
-        <v>676642198.454335</v>
+        <v>287780060.9576968</v>
       </c>
       <c r="G193">
-        <v>1353284396.90867</v>
+        <v>1438900304.788484</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5150,22 +5153,22 @@
         <v>42450</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
       </c>
       <c r="D194" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E194" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F194">
-        <v>642195344.580637</v>
+        <v>676642198.454335</v>
       </c>
       <c r="G194">
-        <v>1291364055.05859</v>
+        <v>1353284396.90867</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5173,22 +5176,22 @@
         <v>42450</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>38</v>
       </c>
       <c r="D195" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E195" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F195">
-        <v>451490919.8256</v>
+        <v>642195344.580637</v>
       </c>
       <c r="G195">
-        <v>1149416802</v>
+        <v>1291364055.05859</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5196,22 +5199,22 @@
         <v>42450</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C196" t="s">
         <v>38</v>
       </c>
       <c r="D196" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E196" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F196">
-        <v>418654811.6573647</v>
+        <v>451490919.8256</v>
       </c>
       <c r="G196">
-        <v>877867082.5274999</v>
+        <v>1149416802</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5219,22 +5222,22 @@
         <v>42450</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
         <v>38</v>
       </c>
       <c r="D197" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E197" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F197">
-        <v>460678254.300658</v>
+        <v>418654811.6573647</v>
       </c>
       <c r="G197">
-        <v>624225276.83016</v>
+        <v>877867082.5274999</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5242,45 +5245,45 @@
         <v>42450</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C198" t="s">
         <v>38</v>
       </c>
       <c r="D198" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E198" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F198">
-        <v>419248717.8902036</v>
+        <v>460678254.300658</v>
       </c>
       <c r="G198">
-        <v>591073900.8743882</v>
+        <v>624225276.83016</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>42541</v>
+        <v>42450</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
         <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E199" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F199">
-        <v>4849485005.190445</v>
+        <v>419248717.8902036</v>
       </c>
       <c r="G199">
-        <v>5497659001.462923</v>
+        <v>591073900.8743882</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5288,22 +5291,22 @@
         <v>42541</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
         <v>38</v>
       </c>
       <c r="D200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E200" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F200">
-        <v>883148626.4960613</v>
+        <v>4849485005.190445</v>
       </c>
       <c r="G200">
-        <v>1766297252.992123</v>
+        <v>5497659001.462923</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5311,22 +5314,22 @@
         <v>42541</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
       </c>
       <c r="D201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E201" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F201">
-        <v>342185554.3274551</v>
+        <v>883148626.4960613</v>
       </c>
       <c r="G201">
-        <v>1710927771.637275</v>
+        <v>1766297252.992123</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5334,22 +5337,22 @@
         <v>42541</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
       </c>
       <c r="D202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E202" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F202">
-        <v>670276458.8814452</v>
+        <v>342185554.3274551</v>
       </c>
       <c r="G202">
-        <v>1347831206.276785</v>
+        <v>1710927771.637275</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5357,22 +5360,22 @@
         <v>42541</v>
       </c>
       <c r="B203" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
         <v>38</v>
       </c>
       <c r="D203" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E203" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F203">
-        <v>398110764.4128</v>
+        <v>670276458.8814452</v>
       </c>
       <c r="G203">
-        <v>1013520276</v>
+        <v>1347831206.276785</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5380,22 +5383,22 @@
         <v>42541</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C204" t="s">
         <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E204" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F204">
-        <v>395741027.3174774</v>
+        <v>398110764.4128</v>
       </c>
       <c r="G204">
-        <v>829819725.9749998</v>
+        <v>1013520276</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5403,22 +5406,22 @@
         <v>42541</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
       </c>
       <c r="D205" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E205" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F205">
-        <v>557463473.9857686</v>
+        <v>395741027.3174774</v>
       </c>
       <c r="G205">
-        <v>785934687.7002233</v>
+        <v>829819725.9749998</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5426,45 +5429,45 @@
         <v>42541</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
       </c>
       <c r="D206" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E206" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F206">
-        <v>354774770.4321154</v>
+        <v>557463473.9857686</v>
       </c>
       <c r="G206">
-        <v>765260505.6775569</v>
+        <v>785934687.7002233</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>42632</v>
+        <v>42541</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
         <v>38</v>
       </c>
       <c r="D207" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F207">
-        <v>5859176741.299319</v>
+        <v>354774770.4321154</v>
       </c>
       <c r="G207">
-        <v>6276568549.865365</v>
+        <v>765260505.6775569</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5472,22 +5475,22 @@
         <v>42632</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
         <v>38</v>
       </c>
       <c r="D208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E208" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F208">
-        <v>1187374889.996771</v>
+        <v>5859176741.299319</v>
       </c>
       <c r="G208">
-        <v>2374749779.993543</v>
+        <v>6276568549.865365</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5495,22 +5498,22 @@
         <v>42632</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
         <v>38</v>
       </c>
       <c r="D209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E209" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F209">
-        <v>386784305.4326668</v>
+        <v>1187374889.996771</v>
       </c>
       <c r="G209">
-        <v>1933921527.163334</v>
+        <v>2374749779.993543</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5518,22 +5521,22 @@
         <v>42632</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>38</v>
       </c>
       <c r="D210" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E210" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F210">
-        <v>645398253.2826807</v>
+        <v>386784305.4326668</v>
       </c>
       <c r="G210">
-        <v>1322266448.028438</v>
+        <v>1933921527.163334</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5541,22 +5544,22 @@
         <v>42632</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
       </c>
       <c r="D211" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F211">
-        <v>595595440.2322612</v>
+        <v>645398253.2826807</v>
       </c>
       <c r="G211">
-        <v>865565237.9483522</v>
+        <v>1322266448.028438</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5564,22 +5567,22 @@
         <v>42632</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
         <v>38</v>
       </c>
       <c r="D212" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E212" t="s">
         <v>94</v>
       </c>
       <c r="F212">
-        <v>385909743.7005649</v>
+        <v>595595440.2322612</v>
       </c>
       <c r="G212">
-        <v>818646040.9430736</v>
+        <v>865565237.9483522</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5587,45 +5590,45 @@
         <v>42632</v>
       </c>
       <c r="B213" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
       </c>
       <c r="D213" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E213" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F213">
-        <v>365706300.1817121</v>
+        <v>385909743.7005649</v>
       </c>
       <c r="G213">
-        <v>764276489.4079667</v>
+        <v>818646040.9430736</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>42723</v>
+        <v>42632</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
       </c>
       <c r="D214" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F214">
-        <v>4181483968.005682</v>
+        <v>365706300.1817121</v>
       </c>
       <c r="G214">
-        <v>4479361508.308176</v>
+        <v>764276489.4079667</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5633,22 +5636,22 @@
         <v>42723</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
         <v>38</v>
       </c>
       <c r="D215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E215" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F215">
-        <v>876538041.2737263</v>
+        <v>4181483968.005682</v>
       </c>
       <c r="G215">
-        <v>1753076082.547453</v>
+        <v>4479361508.308176</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5656,22 +5659,22 @@
         <v>42723</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
         <v>38</v>
       </c>
       <c r="D216" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F216">
-        <v>485078248.3206919</v>
+        <v>876538041.2737263</v>
       </c>
       <c r="G216">
-        <v>993809154.5189344</v>
+        <v>1753076082.547453</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5679,22 +5682,22 @@
         <v>42723</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
         <v>38</v>
       </c>
       <c r="D217" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E217" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F217">
-        <v>327348014.2480693</v>
+        <v>485078248.3206919</v>
       </c>
       <c r="G217">
-        <v>967626409.2464361</v>
+        <v>993809154.5189344</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5702,45 +5705,45 @@
         <v>42723</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C218" t="s">
         <v>38</v>
       </c>
       <c r="D218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E218" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F218">
-        <v>458915983.4718552</v>
+        <v>327348014.2480693</v>
       </c>
       <c r="G218">
-        <v>690514570.3759483</v>
+        <v>967626409.2464361</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>42814</v>
+        <v>42723</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
         <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E219" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F219">
-        <v>4896916167.894504</v>
+        <v>458915983.4718552</v>
       </c>
       <c r="G219">
-        <v>5245759151.467065</v>
+        <v>690514570.3759483</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5748,22 +5751,22 @@
         <v>42814</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
         <v>38</v>
       </c>
       <c r="D220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E220" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F220">
-        <v>1015947354.253058</v>
+        <v>4896916167.894504</v>
       </c>
       <c r="G220">
-        <v>2031894708.506116</v>
+        <v>5245759151.467065</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5771,22 +5774,22 @@
         <v>42814</v>
       </c>
       <c r="B221" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
         <v>38</v>
       </c>
       <c r="D221" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E221" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F221">
-        <v>372653083.5523643</v>
+        <v>1015947354.253058</v>
       </c>
       <c r="G221">
-        <v>1101546212.09685</v>
+        <v>2031894708.506116</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5794,22 +5797,22 @@
         <v>42814</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C222" t="s">
         <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E222" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F222">
-        <v>495329863.5237394</v>
+        <v>372653083.5523643</v>
       </c>
       <c r="G222">
-        <v>1014812258.807088</v>
+        <v>1101546212.09685</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5817,45 +5820,45 @@
         <v>42814</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>38</v>
       </c>
       <c r="D223" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E223" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F223">
-        <v>509593934.3792182</v>
+        <v>495329863.5237394</v>
       </c>
       <c r="G223">
-        <v>865920024.4336758</v>
+        <v>1014812258.807088</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>42905</v>
+        <v>42814</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
         <v>38</v>
       </c>
       <c r="D224" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E224" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F224">
-        <v>4969096469.883385</v>
+        <v>509593934.3792182</v>
       </c>
       <c r="G224">
-        <v>5323081381.771167</v>
+        <v>865920024.4336758</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5863,22 +5866,22 @@
         <v>42905</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
         <v>38</v>
       </c>
       <c r="D225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E225" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F225">
-        <v>946252658.6217115</v>
+        <v>4969096469.883385</v>
       </c>
       <c r="G225">
-        <v>1892505317.243423</v>
+        <v>5323081381.771167</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5886,22 +5889,22 @@
         <v>42905</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
         <v>38</v>
       </c>
       <c r="D226" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E226" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F226">
-        <v>367471856.6085522</v>
+        <v>946252658.6217115</v>
       </c>
       <c r="G226">
-        <v>1086230731.920048</v>
+        <v>1892505317.243423</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5909,22 +5912,22 @@
         <v>42905</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C227" t="s">
         <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E227" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F227">
-        <v>444625557.6594787</v>
+        <v>367471856.6085522</v>
       </c>
       <c r="G227">
-        <v>910931279.777666</v>
+        <v>1086230731.920048</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5932,45 +5935,45 @@
         <v>42905</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
         <v>38</v>
       </c>
       <c r="D228" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E228" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F228">
-        <v>507611071.0032775</v>
+        <v>444625557.6594787</v>
       </c>
       <c r="G228">
-        <v>862550672.9027655</v>
+        <v>910931279.777666</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>42996</v>
+        <v>42905</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
         <v>38</v>
       </c>
       <c r="D229" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E229" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F229">
-        <v>4855951505.859565</v>
+        <v>507611071.0032775</v>
       </c>
       <c r="G229">
-        <v>5496266560.112693</v>
+        <v>862550672.9027655</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5978,22 +5981,22 @@
         <v>42996</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C230" t="s">
         <v>38</v>
       </c>
       <c r="D230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E230" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F230">
-        <v>914793572.8504958</v>
+        <v>4855951505.859565</v>
       </c>
       <c r="G230">
-        <v>2058491388.052421</v>
+        <v>5496266560.112693</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6001,22 +6004,22 @@
         <v>42996</v>
       </c>
       <c r="B231" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
         <v>38</v>
       </c>
       <c r="D231" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E231" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F231">
-        <v>642775182.3418157</v>
+        <v>914793572.8504958</v>
       </c>
       <c r="G231">
-        <v>1641407513.641</v>
+        <v>2058491388.052421</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6024,45 +6027,45 @@
         <v>42996</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
       </c>
       <c r="D232" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E232" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F232">
-        <v>384786495.5404563</v>
+        <v>642775182.3418157</v>
       </c>
       <c r="G232">
-        <v>903254684.3672683</v>
+        <v>1641407513.641</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>43087</v>
+        <v>42996</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
         <v>38</v>
       </c>
       <c r="D233" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E233" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F233">
-        <v>4375849920.769127</v>
+        <v>384786495.5404563</v>
       </c>
       <c r="G233">
-        <v>4952857861.65153</v>
+        <v>903254684.3672683</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6070,22 +6073,22 @@
         <v>43087</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
         <v>38</v>
       </c>
       <c r="D234" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F234">
-        <v>844405224.9351264</v>
+        <v>4375849920.769127</v>
       </c>
       <c r="G234">
-        <v>2149707802.788</v>
+        <v>4952857861.65153</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6093,22 +6096,22 @@
         <v>43087</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C235" t="s">
         <v>38</v>
       </c>
       <c r="D235" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E235" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F235">
-        <v>891082433.373853</v>
+        <v>844405224.9351264</v>
       </c>
       <c r="G235">
-        <v>2005135988.690038</v>
+        <v>2149707802.788</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6116,22 +6119,22 @@
         <v>43087</v>
       </c>
       <c r="B236" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
         <v>38</v>
       </c>
       <c r="D236" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F236">
-        <v>583705828.6326623</v>
+        <v>891082433.373853</v>
       </c>
       <c r="G236">
-        <v>1706742188.984393</v>
+        <v>2005135988.690038</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6139,22 +6142,22 @@
         <v>43087</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
         <v>38</v>
       </c>
       <c r="D237" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E237" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F237">
-        <v>492176742.9773368</v>
+        <v>583705828.6326623</v>
       </c>
       <c r="G237">
-        <v>1155344467.08295</v>
+        <v>1706742188.984393</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6162,22 +6165,22 @@
         <v>43087</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
         <v>38</v>
       </c>
       <c r="D238" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E238" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F238">
-        <v>418935996.50097</v>
+        <v>492176742.9773368</v>
       </c>
       <c r="G238">
-        <v>850286171.0999999</v>
+        <v>1155344467.08295</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6185,45 +6188,45 @@
         <v>43087</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
         <v>38</v>
       </c>
       <c r="D239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E239" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F239">
-        <v>436248750.111108</v>
+        <v>418935996.50097</v>
       </c>
       <c r="G239">
-        <v>846756114.3460947</v>
+        <v>850286171.0999999</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>43178</v>
+        <v>43087</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
         <v>38</v>
       </c>
       <c r="D240" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E240" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F240">
-        <v>4457986242.983013</v>
+        <v>436248750.111108</v>
       </c>
       <c r="G240">
-        <v>5044112064.9276</v>
+        <v>846756114.3460947</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6231,22 +6234,22 @@
         <v>43178</v>
       </c>
       <c r="B241" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
         <v>38</v>
       </c>
       <c r="D241" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F241">
-        <v>1177468381.98</v>
+        <v>4457986242.983013</v>
       </c>
       <c r="G241">
-        <v>3006814050</v>
+        <v>5044112064.9276</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6254,22 +6257,22 @@
         <v>43178</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C242" t="s">
         <v>38</v>
       </c>
       <c r="D242" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E242" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F242">
-        <v>627025700.4722484</v>
+        <v>1177468381.98</v>
       </c>
       <c r="G242">
-        <v>1940054766.31265</v>
+        <v>3006814050</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6277,22 +6280,22 @@
         <v>43178</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
         <v>38</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E243" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F243">
-        <v>797175243.1834742</v>
+        <v>627025700.4722484</v>
       </c>
       <c r="G243">
-        <v>1793823679.53077</v>
+        <v>1940054766.31265</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6300,22 +6303,22 @@
         <v>43178</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
         <v>38</v>
       </c>
       <c r="D244" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E244" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F244">
-        <v>484963576.9113238</v>
+        <v>797175243.1834742</v>
       </c>
       <c r="G244">
-        <v>1145132413.013752</v>
+        <v>1793823679.53077</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6323,45 +6326,45 @@
         <v>43178</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
         <v>38</v>
       </c>
       <c r="D245" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E245" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F245">
-        <v>438125828.49741</v>
+        <v>484963576.9113238</v>
       </c>
       <c r="G245">
-        <v>993707934.9</v>
+        <v>1145132413.013752</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2">
-        <v>43269</v>
+        <v>43178</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
         <v>38</v>
       </c>
       <c r="D246" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E246" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F246">
-        <v>5179289712.555456</v>
+        <v>438125828.49741</v>
       </c>
       <c r="G246">
-        <v>5545278064.834537</v>
+        <v>993707934.9</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6369,22 +6372,22 @@
         <v>43269</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
         <v>38</v>
       </c>
       <c r="D247" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E247" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F247">
-        <v>1147698067.068</v>
+        <v>5179289712.555456</v>
       </c>
       <c r="G247">
-        <v>2933788515</v>
+        <v>5545278064.834537</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6392,22 +6395,22 @@
         <v>43269</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C248" t="s">
         <v>38</v>
       </c>
       <c r="D248" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E248" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F248">
-        <v>828416181.8469923</v>
+        <v>1147698067.068</v>
       </c>
       <c r="G248">
-        <v>2563168879.47708</v>
+        <v>2933788515</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6415,22 +6418,22 @@
         <v>43269</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C249" t="s">
         <v>38</v>
       </c>
       <c r="D249" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E249" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F249">
-        <v>593357963.3494332</v>
+        <v>828416181.8469923</v>
       </c>
       <c r="G249">
-        <v>1401081377.448484</v>
+        <v>2563168879.47708</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6438,22 +6441,22 @@
         <v>43269</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
         <v>38</v>
       </c>
       <c r="D250" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E250" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F250">
-        <v>570975790.9943831</v>
+        <v>593357963.3494332</v>
       </c>
       <c r="G250">
-        <v>1284824012.138576</v>
+        <v>1401081377.448484</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6461,45 +6464,45 @@
         <v>43269</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
         <v>38</v>
       </c>
       <c r="D251" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E251" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F251">
-        <v>1051334799.59484</v>
+        <v>570975790.9943831</v>
       </c>
       <c r="G251">
-        <v>1188351757.2</v>
+        <v>1284824012.138576</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2">
-        <v>43367</v>
+        <v>43269</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C252" t="s">
         <v>38</v>
       </c>
       <c r="D252" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E252" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F252">
-        <v>5321389075.362249</v>
+        <v>1051334799.59484</v>
       </c>
       <c r="G252">
-        <v>5695589291.835866</v>
+        <v>1188351757.2</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6507,22 +6510,22 @@
         <v>43367</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
         <v>38</v>
       </c>
       <c r="D253" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E253" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F253">
-        <v>1022325508.452008</v>
+        <v>5321389075.362249</v>
       </c>
       <c r="G253">
-        <v>2617991058.77595</v>
+        <v>5695589291.835866</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6530,22 +6533,22 @@
         <v>43367</v>
       </c>
       <c r="B254" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C254" t="s">
         <v>38</v>
       </c>
       <c r="D254" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E254" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F254">
-        <v>772050408.018178</v>
+        <v>1022325508.452008</v>
       </c>
       <c r="G254">
-        <v>2388769826.788917</v>
+        <v>2617991058.77595</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6553,22 +6556,22 @@
         <v>43367</v>
       </c>
       <c r="B255" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C255" t="s">
         <v>38</v>
       </c>
       <c r="D255" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F255">
-        <v>1441233815.053021</v>
+        <v>772050408.018178</v>
       </c>
       <c r="G255">
-        <v>2335494757.823726</v>
+        <v>2388769826.788917</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6576,22 +6579,22 @@
         <v>43367</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C256" t="s">
         <v>38</v>
       </c>
       <c r="D256" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E256" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F256">
-        <v>573466596.1388371</v>
+        <v>1441233815.053021</v>
       </c>
       <c r="G256">
-        <v>1354112387.576947</v>
+        <v>2335494757.823726</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6599,45 +6602,45 @@
         <v>43367</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
         <v>38</v>
       </c>
       <c r="D257" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E257" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F257">
-        <v>500102966.0198257</v>
+        <v>573466596.1388371</v>
       </c>
       <c r="G257">
-        <v>1125344207.965404</v>
+        <v>1354112387.576947</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="2">
-        <v>43458</v>
+        <v>43367</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
         <v>38</v>
       </c>
       <c r="D258" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E258" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F258">
-        <v>4534812632.887591</v>
+        <v>500102966.0198257</v>
       </c>
       <c r="G258">
-        <v>4853700773.721066</v>
+        <v>1125344207.965404</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6645,22 +6648,22 @@
         <v>43458</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
         <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E259" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F259">
-        <v>898315907.6860722</v>
+        <v>4534812632.887591</v>
       </c>
       <c r="G259">
-        <v>2302783664.922</v>
+        <v>4853700773.721066</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6668,22 +6671,22 @@
         <v>43458</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C260" t="s">
         <v>38</v>
       </c>
       <c r="D260" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E260" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F260">
-        <v>630649299.7119321</v>
+        <v>898315907.6860722</v>
       </c>
       <c r="G260">
-        <v>1951266397.623552</v>
+        <v>2302783664.922</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6691,22 +6694,22 @@
         <v>43458</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C261" t="s">
         <v>38</v>
       </c>
       <c r="D261" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E261" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F261">
-        <v>472339766.984597</v>
+        <v>630649299.7119321</v>
       </c>
       <c r="G261">
-        <v>1115324125.111209</v>
+        <v>1951266397.623552</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6714,45 +6717,45 @@
         <v>43458</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C262" t="s">
         <v>38</v>
       </c>
       <c r="D262" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E262" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F262">
-        <v>441640344.655887</v>
+        <v>472339766.984597</v>
       </c>
       <c r="G262">
-        <v>993790154.4911948</v>
+        <v>1115324125.111209</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="2">
-        <v>43542</v>
+        <v>43458</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
         <v>38</v>
       </c>
       <c r="D263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E263" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F263">
-        <v>4709529591.244046</v>
+        <v>441640344.655887</v>
       </c>
       <c r="G263">
-        <v>5112940604.976708</v>
+        <v>993790154.4911948</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6760,22 +6763,22 @@
         <v>43542</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
         <v>38</v>
       </c>
       <c r="D264" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E264" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F264">
-        <v>720037256.665</v>
+        <v>4709529591.244046</v>
       </c>
       <c r="G264">
-        <v>2227838046.612005</v>
+        <v>5112940604.976708</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6783,22 +6786,22 @@
         <v>43542</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C265" t="s">
         <v>38</v>
       </c>
       <c r="D265" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E265" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F265">
-        <v>840445816.1258252</v>
+        <v>720037256.665</v>
       </c>
       <c r="G265">
-        <v>2154989272.1175</v>
+        <v>2227838046.612005</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6806,22 +6809,22 @@
         <v>43542</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C266" t="s">
         <v>38</v>
       </c>
       <c r="D266" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E266" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F266">
-        <v>507297342.832889</v>
+        <v>840445816.1258252</v>
       </c>
       <c r="G266">
-        <v>1197868578.117802</v>
+        <v>2154989272.1175</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6829,45 +6832,45 @@
         <v>43542</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C267" t="s">
         <v>38</v>
       </c>
       <c r="D267" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E267" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F267">
-        <v>451472416.0490378</v>
+        <v>507297342.832889</v>
       </c>
       <c r="G267">
-        <v>1015914527.563092</v>
+        <v>1197868578.117802</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="2">
-        <v>43640</v>
+        <v>43542</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C268" t="s">
         <v>38</v>
       </c>
       <c r="D268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E268" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F268">
-        <v>4918166881.115263</v>
+        <v>451472416.0490378</v>
       </c>
       <c r="G268">
-        <v>5264012502.531589</v>
+        <v>1015914527.563092</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6875,22 +6878,22 @@
         <v>43640</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C269" t="s">
         <v>38</v>
       </c>
       <c r="D269" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E269" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F269">
-        <v>879600450.72159</v>
+        <v>4918166881.115263</v>
       </c>
       <c r="G269">
-        <v>2255385771.081</v>
+        <v>5264012502.531589</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6898,22 +6901,22 @@
         <v>43640</v>
       </c>
       <c r="B270" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C270" t="s">
         <v>38</v>
       </c>
       <c r="D270" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E270" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F270">
-        <v>719846107.9743437</v>
+        <v>879600450.72159</v>
       </c>
       <c r="G270">
-        <v>2227246621.207747</v>
+        <v>2255385771.081</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6921,22 +6924,22 @@
         <v>43640</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C271" t="s">
         <v>38</v>
       </c>
       <c r="D271" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E271" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F271">
-        <v>521743086.9456663</v>
+        <v>719846107.9743437</v>
       </c>
       <c r="G271">
-        <v>1231978953.826839</v>
+        <v>2227246621.207747</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6944,22 +6947,22 @@
         <v>43640</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C272" t="s">
         <v>38</v>
       </c>
       <c r="D272" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E272" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F272">
-        <v>472505583.3767705</v>
+        <v>521743086.9456663</v>
       </c>
       <c r="G272">
-        <v>1063243886.986432</v>
+        <v>1231978953.826839</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6967,45 +6970,45 @@
         <v>43640</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
         <v>38</v>
       </c>
       <c r="D273" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E273" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F273">
-        <v>385810447.4333786</v>
+        <v>472505583.3767705</v>
       </c>
       <c r="G273">
-        <v>696534478.1248938</v>
+        <v>1063243886.986432</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="2">
-        <v>43731</v>
+        <v>43640</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C274" t="s">
         <v>38</v>
       </c>
       <c r="D274" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E274" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F274">
-        <v>6620134645.38912</v>
+        <v>385810447.4333786</v>
       </c>
       <c r="G274">
-        <v>7085662683.708788</v>
+        <v>696534478.1248938</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7013,22 +7016,22 @@
         <v>43731</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
         <v>38</v>
       </c>
       <c r="D275" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E275" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F275">
-        <v>909073296.4843529</v>
+        <v>6620134645.38912</v>
       </c>
       <c r="G275">
-        <v>2093674105.215</v>
+        <v>7085662683.708788</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7036,22 +7039,22 @@
         <v>43731</v>
       </c>
       <c r="B276" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C276" t="s">
         <v>38</v>
       </c>
       <c r="D276" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E276" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F276">
-        <v>595031323.6953487</v>
+        <v>909073296.4843529</v>
       </c>
       <c r="G276">
-        <v>1841062263.908876</v>
+        <v>2093674105.215</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7059,22 +7062,22 @@
         <v>43731</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C277" t="s">
         <v>38</v>
       </c>
       <c r="D277" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E277" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F277">
-        <v>604091693.2801374</v>
+        <v>595031323.6953487</v>
       </c>
       <c r="G277">
-        <v>1426426666.541057</v>
+        <v>1841062263.908876</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7082,22 +7085,22 @@
         <v>43731</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C278" t="s">
         <v>38</v>
       </c>
       <c r="D278" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E278" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F278">
-        <v>1156548800.630286</v>
+        <v>604091693.2801374</v>
       </c>
       <c r="G278">
-        <v>1415777696.94</v>
+        <v>1426426666.541057</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7105,45 +7108,45 @@
         <v>43731</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
         <v>38</v>
       </c>
       <c r="D279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E279" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F279">
-        <v>514414021.1146308</v>
+        <v>1156548800.630286</v>
       </c>
       <c r="G279">
-        <v>924207727.4786754</v>
+        <v>1415777696.94</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="2">
-        <v>43822</v>
+        <v>43731</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C280" t="s">
         <v>38</v>
       </c>
       <c r="D280" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E280" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F280">
-        <v>6598062061.734974</v>
+        <v>514414021.1146308</v>
       </c>
       <c r="G280">
-        <v>7062037955.405087</v>
+        <v>924207727.4786754</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7151,22 +7154,22 @@
         <v>43822</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s">
         <v>38</v>
       </c>
       <c r="D281" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E281" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F281">
-        <v>924231441.3798375</v>
+        <v>6598062061.734974</v>
       </c>
       <c r="G281">
-        <v>2128584618.5625</v>
+        <v>7062037955.405087</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7174,22 +7177,22 @@
         <v>43822</v>
       </c>
       <c r="B282" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C282" t="s">
         <v>38</v>
       </c>
       <c r="D282" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E282" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F282">
-        <v>523658509.1069499</v>
+        <v>924231441.3798375</v>
       </c>
       <c r="G282">
-        <v>1623243983.592529</v>
+        <v>2128584618.5625</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7197,22 +7200,22 @@
         <v>43822</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C283" t="s">
         <v>38</v>
       </c>
       <c r="D283" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E283" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F283">
-        <v>1132279686.868869</v>
+        <v>523658509.1069499</v>
       </c>
       <c r="G283">
-        <v>1386068903.01</v>
+        <v>1623243983.592529</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7220,22 +7223,22 @@
         <v>43822</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C284" t="s">
         <v>38</v>
       </c>
       <c r="D284" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E284" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F284">
-        <v>475454703.2368055</v>
+        <v>1132279686.868869</v>
       </c>
       <c r="G284">
-        <v>1122679346.485964</v>
+        <v>1386068903.01</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7243,45 +7246,45 @@
         <v>43822</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C285" t="s">
         <v>38</v>
       </c>
       <c r="D285" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E285" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F285">
-        <v>467094876.7740548</v>
+        <v>475454703.2368055</v>
       </c>
       <c r="G285">
-        <v>839193095.1743709</v>
+        <v>1122679346.485964</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="2">
-        <v>43913</v>
+        <v>43822</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C286" t="s">
         <v>38</v>
       </c>
       <c r="D286" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E286" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F286">
-        <v>7151950829.835625</v>
+        <v>467094876.7740548</v>
       </c>
       <c r="G286">
-        <v>7650781803.418512</v>
+        <v>839193095.1743709</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7289,22 +7292,22 @@
         <v>43913</v>
       </c>
       <c r="B287" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C287" t="s">
         <v>38</v>
       </c>
       <c r="D287" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E287" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F287">
-        <v>890554543.4771212</v>
+        <v>7151950829.835625</v>
       </c>
       <c r="G287">
-        <v>2051023821.91875</v>
+        <v>7650781803.418512</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7312,22 +7315,22 @@
         <v>43913</v>
       </c>
       <c r="B288" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C288" t="s">
         <v>38</v>
       </c>
       <c r="D288" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E288" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F288">
-        <v>420596973.5632875</v>
+        <v>890554543.4771212</v>
       </c>
       <c r="G288">
-        <v>1301352022.163637</v>
+        <v>2051023821.91875</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7335,22 +7338,22 @@
         <v>43913</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C289" t="s">
         <v>38</v>
       </c>
       <c r="D289" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E289" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F289">
-        <v>411935298.8018149</v>
+        <v>420596973.5632875</v>
       </c>
       <c r="G289">
-        <v>980798330.4805118</v>
+        <v>1301352022.163637</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7358,45 +7361,45 @@
         <v>43913</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
         <v>38</v>
       </c>
       <c r="D290" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E290" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F290">
-        <v>366102909.8585976</v>
+        <v>411935298.8018149</v>
       </c>
       <c r="G290">
-        <v>714905115.912122</v>
+        <v>980798330.4805118</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="2">
-        <v>44004</v>
+        <v>43913</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C291" t="s">
         <v>38</v>
       </c>
       <c r="D291" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E291" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F291">
-        <v>5404326740.738854</v>
+        <v>366102909.8585976</v>
       </c>
       <c r="G291">
-        <v>5789316272.885757</v>
+        <v>714905115.912122</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7404,22 +7407,22 @@
         <v>44004</v>
       </c>
       <c r="B292" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C292" t="s">
         <v>38</v>
       </c>
       <c r="D292" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E292" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F292">
-        <v>769987248.132375</v>
+        <v>5404326740.738854</v>
       </c>
       <c r="G292">
-        <v>1773346955.625</v>
+        <v>5789316272.885757</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7427,45 +7430,45 @@
         <v>44004</v>
       </c>
       <c r="B293" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C293" t="s">
         <v>38</v>
       </c>
       <c r="D293" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E293" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F293">
-        <v>338278622.1778501</v>
+        <v>769987248.132375</v>
       </c>
       <c r="G293">
-        <v>1046654152.778002</v>
+        <v>1773346955.625</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="2">
-        <v>44095</v>
+        <v>44004</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C294" t="s">
         <v>38</v>
       </c>
       <c r="D294" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E294" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F294">
-        <v>5798914274.45795</v>
+        <v>338278622.1778501</v>
       </c>
       <c r="G294">
-        <v>6219341778.697928</v>
+        <v>1046654152.778002</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7473,22 +7476,22 @@
         <v>44095</v>
       </c>
       <c r="B295" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
         <v>38</v>
       </c>
       <c r="D295" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E295" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F295">
-        <v>775743799.5244664</v>
+        <v>5798914274.45795</v>
       </c>
       <c r="G295">
-        <v>1788664513.545</v>
+        <v>6219341778.697928</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7496,45 +7499,45 @@
         <v>44095</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C296" t="s">
         <v>38</v>
       </c>
       <c r="D296" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E296" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F296">
-        <v>369036445.1012229</v>
+        <v>775743799.5244664</v>
       </c>
       <c r="G296">
-        <v>874908594.3604144</v>
+        <v>1788664513.545</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="2">
-        <v>44186</v>
+        <v>44095</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C297" t="s">
         <v>38</v>
       </c>
       <c r="D297" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E297" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F297">
-        <v>5512438108.544479</v>
+        <v>369036445.1012229</v>
       </c>
       <c r="G297">
-        <v>5898810175.007469</v>
+        <v>874908594.3604144</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7542,22 +7545,22 @@
         <v>44186</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
         <v>38</v>
       </c>
       <c r="D298" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E298" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F298">
-        <v>690355380.9770954</v>
+        <v>5512438108.544479</v>
       </c>
       <c r="G298">
-        <v>1591780910.715</v>
+        <v>5898810175.007469</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7565,22 +7568,22 @@
         <v>44186</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C299" t="s">
         <v>38</v>
       </c>
       <c r="D299" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E299" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F299">
-        <v>487829157.6887154</v>
+        <v>690355380.9770954</v>
       </c>
       <c r="G299">
-        <v>1359613037.036554</v>
+        <v>1591780910.715</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7588,45 +7591,45 @@
         <v>44186</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C300" t="s">
         <v>38</v>
       </c>
       <c r="D300" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E300" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F300">
-        <v>417527946.607874</v>
+        <v>487829157.6887154</v>
       </c>
       <c r="G300">
-        <v>1291856270.445154</v>
+        <v>1359613037.036554</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="2">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C301" t="s">
         <v>38</v>
       </c>
       <c r="D301" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F301">
-        <v>5024475891.013624</v>
+        <v>417527946.607874</v>
       </c>
       <c r="G301">
-        <v>5873145401.535503</v>
+        <v>1291856270.445154</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7634,22 +7637,22 @@
         <v>44277</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
         <v>38</v>
       </c>
       <c r="D302" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E302" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F302">
-        <v>783981356.0411369</v>
+        <v>5024475891.013624</v>
       </c>
       <c r="G302">
-        <v>2185009353.514874</v>
+        <v>5873145401.535503</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7657,22 +7660,22 @@
         <v>44277</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C303" t="s">
         <v>38</v>
       </c>
       <c r="D303" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E303" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F303">
-        <v>926112151.6245248</v>
+        <v>783981356.0411369</v>
       </c>
       <c r="G303">
-        <v>2135375032.5675</v>
+        <v>2185009353.514874</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7680,45 +7683,45 @@
         <v>44277</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C304" t="s">
         <v>38</v>
       </c>
       <c r="D304" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E304" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F304">
-        <v>621148185.2766958</v>
+        <v>926112151.6245248</v>
       </c>
       <c r="G304">
-        <v>1186302874.86</v>
+        <v>2135375032.5675</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="2">
-        <v>44368</v>
+        <v>44277</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
         <v>38</v>
       </c>
       <c r="D305" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E305" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F305">
-        <v>4314065077.79458</v>
+        <v>621148185.2766958</v>
       </c>
       <c r="G305">
-        <v>5045100079.282635</v>
+        <v>1186302874.86</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7726,22 +7729,22 @@
         <v>44368</v>
       </c>
       <c r="B306" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C306" t="s">
         <v>38</v>
       </c>
       <c r="D306" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E306" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F306">
-        <v>1129198129.468205</v>
+        <v>4314065077.79458</v>
       </c>
       <c r="G306">
-        <v>2364317691.516342</v>
+        <v>5045100079.282635</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7749,22 +7752,22 @@
         <v>44368</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C307" t="s">
         <v>38</v>
       </c>
       <c r="D307" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E307" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F307">
-        <v>731720161.2980193</v>
+        <v>1129198129.468205</v>
       </c>
       <c r="G307">
-        <v>1687157392.89375</v>
+        <v>2364317691.516342</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7772,45 +7775,45 @@
         <v>44368</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C308" t="s">
         <v>38</v>
       </c>
       <c r="D308" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E308" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F308">
-        <v>996955413.4089</v>
+        <v>731720161.2980193</v>
       </c>
       <c r="G308">
-        <v>1126885287</v>
+        <v>1687157392.89375</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="2">
-        <v>44459</v>
+        <v>44368</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
         <v>38</v>
       </c>
       <c r="D309" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E309" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F309">
-        <v>4893270913.424809</v>
+        <v>996955413.4089</v>
       </c>
       <c r="G309">
-        <v>5799088543.997166</v>
+        <v>1126885287</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7818,22 +7821,22 @@
         <v>44459</v>
       </c>
       <c r="B310" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
         <v>38</v>
       </c>
       <c r="D310" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E310" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F310">
-        <v>748219143.4388033</v>
+        <v>4893270913.424809</v>
       </c>
       <c r="G310">
-        <v>1816065882.133018</v>
+        <v>5799088543.997166</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7841,45 +7844,45 @@
         <v>44459</v>
       </c>
       <c r="B311" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C311" t="s">
         <v>38</v>
       </c>
       <c r="D311" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E311" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F311">
-        <v>730321442.2859005</v>
+        <v>748219143.4388033</v>
       </c>
       <c r="G311">
-        <v>1683932308.70625</v>
+        <v>1816065882.133018</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="2">
-        <v>44550</v>
+        <v>44459</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C312" t="s">
         <v>38</v>
       </c>
       <c r="D312" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E312" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F312">
-        <v>5481013623.464415</v>
+        <v>730321442.2859005</v>
       </c>
       <c r="G312">
-        <v>6430095757.231832</v>
+        <v>1683932308.70625</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7887,22 +7890,22 @@
         <v>44550</v>
       </c>
       <c r="B313" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C313" t="s">
         <v>38</v>
       </c>
       <c r="D313" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E313" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F313">
-        <v>693324938.526827</v>
+        <v>5481013623.464415</v>
       </c>
       <c r="G313">
-        <v>1598627942.18775</v>
+        <v>6430095757.231832</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7910,22 +7913,22 @@
         <v>44550</v>
       </c>
       <c r="B314" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C314" t="s">
         <v>38</v>
       </c>
       <c r="D314" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E314" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F314">
-        <v>638604722.5248836</v>
+        <v>693324938.526827</v>
       </c>
       <c r="G314">
-        <v>1408169178.665675</v>
+        <v>1598627942.18775</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7933,45 +7936,45 @@
         <v>44550</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C315" t="s">
         <v>38</v>
       </c>
       <c r="D315" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E315" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F315">
-        <v>523775387.0882934</v>
+        <v>638604722.5248836</v>
       </c>
       <c r="G315">
-        <v>1073090323.885051</v>
+        <v>1408169178.665675</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="2">
-        <v>44641</v>
+        <v>44550</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C316" t="s">
         <v>38</v>
       </c>
       <c r="D316" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E316" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F316">
-        <v>5111062328.62161</v>
+        <v>523775387.0882934</v>
       </c>
       <c r="G316">
-        <v>5996084383.648065</v>
+        <v>1073090323.885051</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7979,22 +7982,22 @@
         <v>44641</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
         <v>38</v>
       </c>
       <c r="D317" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E317" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F317">
-        <v>673955379.77859</v>
+        <v>5111062328.62161</v>
       </c>
       <c r="G317">
-        <v>1553966750.7</v>
+        <v>5996084383.648065</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8002,22 +8005,22 @@
         <v>44641</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C318" t="s">
         <v>38</v>
       </c>
       <c r="D318" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E318" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F318">
-        <v>599865264.763651</v>
+        <v>673955379.77859</v>
       </c>
       <c r="G318">
-        <v>1229484043.377026</v>
+        <v>1553966750.7</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8025,22 +8028,22 @@
         <v>44641</v>
       </c>
       <c r="B319" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C319" t="s">
         <v>38</v>
       </c>
       <c r="D319" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E319" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F319">
-        <v>476589115.7158792</v>
+        <v>599865264.763651</v>
       </c>
       <c r="G319">
-        <v>1050913154.831046</v>
+        <v>1229484043.377026</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8048,50 +8051,50 @@
         <v>44641</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C320" t="s">
         <v>38</v>
       </c>
       <c r="D320" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E320" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F320">
-        <v>686971040.7181375</v>
+        <v>476589115.7158792</v>
       </c>
       <c r="G320">
-        <v>1018640333.211948</v>
+        <v>1050913154.831046</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="2">
-        <v>44732</v>
+        <v>44641</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C321" t="s">
         <v>38</v>
       </c>
       <c r="D321" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E321" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F321">
-        <v>1857559317.986856</v>
+        <v>686971040.7181375</v>
       </c>
       <c r="G321">
-        <v>4363028345.242176</v>
+        <v>1018640333.211948</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="2">
-        <v>44823</v>
+        <v>44732</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
@@ -8106,15 +8109,15 @@
         <v>71</v>
       </c>
       <c r="F322">
-        <v>1502823402.333922</v>
+        <v>1857559317.986856</v>
       </c>
       <c r="G322">
-        <v>3937184706.140743</v>
+        <v>4363028345.242176</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="2">
-        <v>44914</v>
+        <v>44823</v>
       </c>
       <c r="B323" t="s">
         <v>11</v>
@@ -8129,15 +8132,15 @@
         <v>71</v>
       </c>
       <c r="F323">
-        <v>1857194446.653188</v>
+        <v>1502823402.333922</v>
       </c>
       <c r="G323">
-        <v>4865586708.549091</v>
+        <v>3937184706.140743</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="2">
-        <v>45005</v>
+        <v>44914</v>
       </c>
       <c r="B324" t="s">
         <v>11</v>
@@ -8152,15 +8155,15 @@
         <v>71</v>
       </c>
       <c r="F324">
-        <v>1976536576.671294</v>
+        <v>1857194446.653188</v>
       </c>
       <c r="G324">
-        <v>5171471943.148338</v>
+        <v>4865586708.549091</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="2">
-        <v>45096</v>
+        <v>45005</v>
       </c>
       <c r="B325" t="s">
         <v>11</v>
@@ -8175,15 +8178,15 @@
         <v>71</v>
       </c>
       <c r="F325">
-        <v>1940079272.995115</v>
+        <v>1976536576.671294</v>
       </c>
       <c r="G325">
-        <v>5076083916.784705</v>
+        <v>5171471943.148338</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="2">
-        <v>45187</v>
+        <v>45096</v>
       </c>
       <c r="B326" t="s">
         <v>11</v>
@@ -8198,15 +8201,15 @@
         <v>71</v>
       </c>
       <c r="F326">
-        <v>2114433869.241198</v>
+        <v>1940079272.995115</v>
       </c>
       <c r="G326">
-        <v>5532270720.149653</v>
+        <v>5076083916.784705</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="2">
-        <v>45278</v>
+        <v>45187</v>
       </c>
       <c r="B327" t="s">
         <v>11</v>
@@ -8221,10 +8224,10 @@
         <v>71</v>
       </c>
       <c r="F327">
-        <v>2863753441.598907</v>
+        <v>2114433869.241198</v>
       </c>
       <c r="G327">
-        <v>7492813818.940104</v>
+        <v>5532270720.149653</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8232,22 +8235,22 @@
         <v>45278</v>
       </c>
       <c r="B328" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
         <v>38</v>
       </c>
       <c r="D328" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E328" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F328">
-        <v>409814436.7523381</v>
+        <v>2863753441.598907</v>
       </c>
       <c r="G328">
-        <v>1869165047.9012</v>
+        <v>7492813818.940104</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8255,45 +8258,45 @@
         <v>45278</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C329" t="s">
         <v>38</v>
       </c>
       <c r="D329" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E329" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F329">
-        <v>362114696.2696908</v>
+        <v>409814436.7523381</v>
       </c>
       <c r="G329">
-        <v>1485903554.656097</v>
+        <v>1869165047.9012</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="2">
-        <v>45369</v>
+        <v>45278</v>
       </c>
       <c r="B330" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C330" t="s">
         <v>38</v>
       </c>
       <c r="D330" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E330" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F330">
-        <v>2711662062.79881</v>
+        <v>362114696.2696908</v>
       </c>
       <c r="G330">
-        <v>7094877192.042937</v>
+        <v>1485903554.656097</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8301,22 +8304,22 @@
         <v>45369</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
         <v>38</v>
       </c>
       <c r="D331" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E331" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F331">
-        <v>1088784971.682722</v>
+        <v>2711662062.79881</v>
       </c>
       <c r="G331">
-        <v>4467726596.974649</v>
+        <v>7094877192.042937</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8324,45 +8327,45 @@
         <v>45369</v>
       </c>
       <c r="B332" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
         <v>38</v>
       </c>
       <c r="D332" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E332" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F332">
-        <v>572315967.2294095</v>
+        <v>1088784971.682722</v>
       </c>
       <c r="G332">
-        <v>2610335084.28465</v>
+        <v>4467726596.974649</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="2">
-        <v>45467</v>
+        <v>45369</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C333" t="s">
         <v>38</v>
       </c>
       <c r="D333" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E333" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F333">
-        <v>1896255582.593538</v>
+        <v>572315967.2294095</v>
       </c>
       <c r="G333">
-        <v>4961422246.45091</v>
+        <v>2610335084.28465</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8370,21 +8373,44 @@
         <v>45467</v>
       </c>
       <c r="B334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" t="s">
+        <v>38</v>
+      </c>
+      <c r="D334" t="s">
+        <v>41</v>
+      </c>
+      <c r="E334" t="s">
+        <v>71</v>
+      </c>
+      <c r="F334">
+        <v>1896255582.593538</v>
+      </c>
+      <c r="G334">
+        <v>4961422246.45091</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B335" t="s">
         <v>13</v>
       </c>
-      <c r="C334" t="s">
-        <v>38</v>
-      </c>
-      <c r="D334" t="s">
+      <c r="C335" t="s">
+        <v>38</v>
+      </c>
+      <c r="D335" t="s">
         <v>43</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E335" t="s">
         <v>73</v>
       </c>
-      <c r="F334">
+      <c r="F335">
         <v>575340059.5495979</v>
       </c>
-      <c r="G334">
+      <c r="G335">
         <v>2360853752.768149</v>
       </c>
     </row>
@@ -8406,25 +8432,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8502,7 +8528,7 @@
         <v>898000000</v>
       </c>
       <c r="H4">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8528,7 +8554,7 @@
         <v>898000000</v>
       </c>
       <c r="H5">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8554,7 +8580,7 @@
         <v>898000000</v>
       </c>
       <c r="H6">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8580,7 +8606,7 @@
         <v>898000000</v>
       </c>
       <c r="H7">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8632,7 +8658,7 @@
         <v>898000000</v>
       </c>
       <c r="H9">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8658,7 +8684,7 @@
         <v>898000000</v>
       </c>
       <c r="H10">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8944,7 +8970,7 @@
         <v>898000000</v>
       </c>
       <c r="H21">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8970,7 +8996,7 @@
         <v>898000000</v>
       </c>
       <c r="H22">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8996,7 +9022,7 @@
         <v>898000000</v>
       </c>
       <c r="H23">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9022,7 +9048,7 @@
         <v>898000000</v>
       </c>
       <c r="H24">
-        <v>2170</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9048,7 +9074,7 @@
         <v>898000000</v>
       </c>
       <c r="H25">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9074,7 +9100,7 @@
         <v>898000000</v>
       </c>
       <c r="H26">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9126,7 +9152,7 @@
         <v>898000000</v>
       </c>
       <c r="H28">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9152,7 +9178,7 @@
         <v>898000000</v>
       </c>
       <c r="H29">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9178,7 +9204,7 @@
         <v>898000000</v>
       </c>
       <c r="H30">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9204,7 +9230,7 @@
         <v>898000000</v>
       </c>
       <c r="H31">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9230,7 +9256,7 @@
         <v>898000000</v>
       </c>
       <c r="H32">
-        <v>2164</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9256,7 +9282,7 @@
         <v>898000000</v>
       </c>
       <c r="H33">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9308,7 +9334,7 @@
         <v>1885471298.201034</v>
       </c>
       <c r="H35">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9438,7 +9464,7 @@
         <v>2358283411.247038</v>
       </c>
       <c r="H40">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9446,22 +9472,22 @@
         <v>44641</v>
       </c>
       <c r="B41">
-        <v>9046426526.25</v>
+        <v>9047055330.889412</v>
       </c>
       <c r="C41">
-        <v>10403390505.1875</v>
+        <v>10404113630.52282</v>
       </c>
       <c r="D41">
-        <v>4523213263.125</v>
+        <v>4523527665.444706</v>
       </c>
       <c r="E41">
-        <v>4523213263.125</v>
+        <v>4523527665.444706</v>
       </c>
       <c r="F41">
-        <v>5201695252.59375</v>
+        <v>5202056815.261412</v>
       </c>
       <c r="G41">
-        <v>2261606631.5625</v>
+        <v>2261763832.722353</v>
       </c>
       <c r="H41">
         <v>1281</v>
@@ -9490,7 +9516,7 @@
         <v>2101801095.530541</v>
       </c>
       <c r="H42">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9550,25 +9576,25 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>8107108673.564472</v>
+        <v>8100169997.48</v>
       </c>
       <c r="C45">
-        <v>9323174974.599142</v>
+        <v>9315195497.101999</v>
       </c>
       <c r="D45">
-        <v>4053554336.782236</v>
+        <v>4050084998.74</v>
       </c>
       <c r="E45">
-        <v>4053554336.782236</v>
+        <v>4050084998.74</v>
       </c>
       <c r="F45">
-        <v>4661587487.299571</v>
+        <v>4657597748.551</v>
       </c>
       <c r="G45">
-        <v>2026777168.391118</v>
+        <v>2025042499.37</v>
       </c>
       <c r="H45">
-        <v>1268</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9576,25 +9602,25 @@
         <v>45096</v>
       </c>
       <c r="B46">
-        <v>8743474887.84</v>
+        <v>8736272725.437805</v>
       </c>
       <c r="C46">
-        <v>10054996121.016</v>
+        <v>10046713634.25348</v>
       </c>
       <c r="D46">
-        <v>4371737443.92</v>
+        <v>4368136362.718903</v>
       </c>
       <c r="E46">
-        <v>4371737443.92</v>
+        <v>4368136362.718903</v>
       </c>
       <c r="F46">
-        <v>5027498060.507999</v>
+        <v>5023356817.126738</v>
       </c>
       <c r="G46">
-        <v>2185868721.96</v>
+        <v>2184068181.359451</v>
       </c>
       <c r="H46">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9620,7 +9646,7 @@
         <v>2338912226.089472</v>
       </c>
       <c r="H47">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9646,7 +9672,7 @@
         <v>2404626329.07</v>
       </c>
       <c r="H48">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9672,7 +9698,7 @@
         <v>2785539431.26</v>
       </c>
       <c r="H49">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="50" spans="1:8">
